--- a/data_collection/stimuli_sheet.xlsx
+++ b/data_collection/stimuli_sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\aarpila\projects\Weimo\data_collection\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\aarpila\projects\weimo\data_collection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C45DE957-9A6E-4846-B479-B9FD093F9915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50EC5963-4CC8-4DAA-ACE4-E2EF91334836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12816" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="9144" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>thisClip</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>videos/walking5.mp4</t>
+  </si>
+  <si>
+    <t>thisClipPrac</t>
   </si>
 </sst>
 </file>
@@ -369,10 +372,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S5" sqref="S5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -380,37 +383,46 @@
     <col min="1" max="1" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
